--- a/文档/Node/Node.xlsx
+++ b/文档/Node/Node.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="npm" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>npm init &lt;@scope&gt; (same as `npx &lt;@scope&gt;/create`)</t>
   </si>
@@ -82,6 +82,778 @@
   </si>
   <si>
     <t>调试本地模块，分为两步，先把本地模块link到全局，然后再别的地方require</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>npm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> -g install </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>npm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@next</t>
+    </r>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>wget https</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA67F59"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nodejs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA67F59"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA67F59"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA67F59"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA67F59"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA67F59"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA67F59"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>xz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cluster 模块</t>
+    </r>
+  </si>
+  <si>
+    <t>在服务器上同时启动多个进程。</t>
+  </si>
+  <si>
+    <r>
+      <t>更神奇的是，这些进程可以同时监听一个端口（具体原理推荐阅读 @DavidCai1993 这篇 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cluster 实现原理）。</t>
+    </r>
+  </si>
+  <si>
+    <t>负责启动其他进程的叫做 Master 进程，他好比是个『包工头』，不做具体的工作，只负责启动其他进程。</t>
+  </si>
+  <si>
+    <t>其他被启动的叫 Worker 进程，顾名思义就是干活的『工人』。它们接收请求，对外提供服务。</t>
+  </si>
+  <si>
+    <t>Worker 进程的数量一般根据服务器的 CPU 核数来定，这样就可以完美利用多核资源。</t>
+  </si>
+  <si>
+    <t>一般来说，Node.js 进程退出可以分为两类：</t>
+  </si>
+  <si>
+    <t>多进程模型和进程间通讯</t>
+  </si>
+  <si>
+    <t>未捕获异常  crash\oom异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果使用 IPC 通道衍生 Node.js 进程（参阅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF43853D"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>子进程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF43853D"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>集群</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>文档），则只要子进程收到父进程使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF43853D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>childprocess.send()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> 发送的消息，就会触发 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF040404"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'message'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> 事件。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> 对象是一个全局变量，它提供有关当前 Node.js 进程的信息并对其进行控制。</t>
+    </r>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送一个消息给工作进程或主进程，也可以附带发送一个句柄。</t>
+  </si>
+  <si>
+    <r>
+      <t>在主进程中，这会发送消息给特定的工作进程。 相当于 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChildProcess.send()。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在工作进程中，这会发送消息给主进程。 相当于 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF040404"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>process.send()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JavaScript </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF585858"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码是运行在单线程上的，换句话说一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF585858"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Node.js </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF585858"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进程只能运行在一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF585858"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CPU </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF585858"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF777777"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF777777"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Node.js </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF777777"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实例在单线程环境下运行。为了更好地利用多核环境，用户有时希望启动一批</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF777777"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Node.js </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF777777"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进程用于加载。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个进程里都跑的是同一份源代码（好比把以前一个进程的工作分给多个进程去做）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Node.js </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进程是通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IPC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通道衍生的，则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF040404"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>process.send()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法可以用来给父进程发送消息。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接收到的消息被视为父进程的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF43853D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ChildProcess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象上的一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF43853D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'message'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事件。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +861,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +893,122 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0086B3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF999999"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA67F59"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF990055"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF585858"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF777777"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF777777"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF585858"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF040404"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF43853D"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF43853D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF585858"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -143,15 +1031,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -453,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -491,30 +1422,144 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="86.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B16" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://nodejs.org/api/cluster.html"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://cnodejs.org/topic/56e84480833b7c8a0492e20c"/>
+    <hyperlink ref="B16" r:id="rId3" display="http://nodejs.cn/s/Eggixm"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>